--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Robot_Setting\Penggabungan_File_JIRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Penggabungan_File_JIRA.2.0.2.2\lib\net45\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Penggabungan File JIRA</t>
   </si>
   <si>
-    <t>rpa_support@intra.bca</t>
-  </si>
-  <si>
     <t>SheetPassword</t>
   </si>
   <si>
@@ -320,6 +317,24 @@
   </si>
   <si>
     <t>\\samantha\Biro PRP\ADMIN\PENGGABUNGAN DOK JIRA\RPA UPLOAD JIRA\coba penggabungan file jira</t>
+  </si>
+  <si>
+    <t>C:\RPA\JIRA\Input</t>
+  </si>
+  <si>
+    <t>C:\RPA\JIRA\OPR Review</t>
+  </si>
+  <si>
+    <t>C:\RPA\JIRA\Done Penggabungan</t>
+  </si>
+  <si>
+    <t>wildy_ardan@intra.bca</t>
+  </si>
+  <si>
+    <t>C:\RPA\JIRA\Data HCM</t>
+  </si>
+  <si>
+    <t>C:\RPA\JIRA\RPA UPLOAD JIRA\</t>
   </si>
 </sst>
 </file>
@@ -736,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +764,7 @@
     <col min="3" max="3" width="78.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -760,25 +775,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -786,42 +807,57 @@
         <v>6</v>
       </c>
       <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C8"/>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -882,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1086,15 +1122,15 @@
         <v>73</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -1257,7 +1293,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>53</v>
@@ -1298,7 +1334,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8blI/C+ORRg+HPyvrMdvDKwHyds/5nLW/0EP2DlwNZx9fbNnf4QQYyKtxbvHheeMb7VsMTHxtJLs2oY2rE4lIA==" saltValue="LbyKoeSf2a+2rT0xVP6jkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
